--- a/mbs-perturbation/nano/multinomialNB/smote/nano-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/nano/multinomialNB/smote/nano-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.704</v>
+        <v>0.5330739299610895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6201241718222106</v>
+        <v>0.5438144329896908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6033782853997522</v>
+        <v>0.5314617090226846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6201241718222106</v>
+        <v>0.5438144329896908</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7015706806282722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5695449958316879</v>
+        <v>0.7002430425725121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5521659826721386</v>
+        <v>0.7002403846153846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5695449958316879</v>
+        <v>0.7002430425725121</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5240963855421686</v>
+        <v>0.8092783505154639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5187793427230047</v>
+        <v>0.8113749265530688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5128495484389207</v>
+        <v>0.8113695090439276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5187793427230046</v>
+        <v>0.8113749265530688</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3591836734693877</v>
+        <v>0.6200716845878136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.6712648896960632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3342717176866978</v>
+        <v>0.6547870733917245</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.6712648896960632</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2987551867219917</v>
+        <v>0.9819277108433735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2723004694835681</v>
+        <v>0.9123310720581166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2691430721891395</v>
+        <v>0.9117149758454106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2723004694835681</v>
+        <v>0.9123310720581166</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5002839722236326</v>
+        <v>0.7291844713072024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4637554297749112</v>
+        <v>0.7278056727738903</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4543617212773298</v>
+        <v>0.7219147303838264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4637554297749111</v>
+        <v>0.7278056727738903</v>
       </c>
     </row>
   </sheetData>
